--- a/M26 访问API AT指令.xlsx
+++ b/M26 访问API AT指令.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meter https\last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366127E0-F903-409F-B831-439C63772476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526AB64B-29AB-4316-BC5F-6F2F943D57F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实现指令" sheetId="1" r:id="rId1"/>
     <sheet name="POST指令" sheetId="4" r:id="rId2"/>
-    <sheet name="GET指令" sheetId="5" r:id="rId3"/>
+    <sheet name="POST指令20200921" sheetId="6" r:id="rId3"/>
+    <sheet name="GET指令" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2492,6 +2493,882 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E519BDE3-8375-482D-836A-B078B76B9EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="179069"/>
+          <a:ext cx="7635240" cy="20556855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:03.536]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ATE0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:03.555]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:09.624]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:09.632]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:16.337]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+CSQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:16.349]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+CSQ: 31,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:22.585]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QIREGAPP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:22.602]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:30.257]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QIACT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:30.838]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:38.097]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QILOCIP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:38.115]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>100.95.174.115</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:44.706]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QSSLCFG="sni",0,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:44.720]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ERROR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:51.656]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QSSLCFG="https",1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:51.661]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:57.912]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QSSLCFG="httpsctxi",0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:05:57.930]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:03.856]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>at+qhttpcfg="requestheader",1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:03.864]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:10.672]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>at+qhttpurl=114</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:10.678]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CONNECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:19.105]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>https://ateei9d448.execute-api.eu-west-1.amazonaws.com/testing/meter/cookingSession/TZ00000111/9088450934850394385</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:19.122]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:25.697]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>at+qhttppost=619</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:37.178]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CONNECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:46.758]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POST /testing/meter/cookingSession/TZ00000111/9088450934850394385 HTTP/1.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Host: ateei9d448.execute-api.eu-west-1.amazonaws.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X-Api-Key: Qg4EIGj5piiDNVb4P7Th8cop60TJU2xmtIKwxo20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X-Locale: dev</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Content-Type: application/json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Content-Length: 366</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "cookingSessionId": "7656565drrsersxs34e#dyf",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "startTime": "2020-08-29T09:12:33.001Z",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "endTime": "2020-08-29T09:12:33.001Z",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "endReason": 2,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "endCumulativeMass": 105.97,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "startCumulativeMass": 100.9,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "startCredit": 34,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "endCredit": 52,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "gasRemaining": 18000,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "cardId": 3943534095,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  "csrpTimestamp": "2020-08-29T09:12:33.001Z"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:06:59.904]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:12.136]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>at+qhttpread=120</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:12.167]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CONNECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{"statusCode":"CookingSession recorded-201","message":"The Cooking Session of meterId TZ00000111 was recorded succesfully"}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:24.033]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QHTTPCFG="requestheader",0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:24.049]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:31.121]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发→◇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AT+QIDEACT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>□</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[15:07:31.597]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收←◆</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DEACT OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3625,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3670,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F67D340-FDE3-4845-8A06-325716338520}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -3684,10 +4561,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630C390-9AC6-4D16-9BE5-EE79C803EB6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U101" sqref="U101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269C7F95-1B38-4401-B08B-806C7578FCF5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
